--- a/Excel/Activities/funcoes.xlsx
+++ b/Excel/Activities/funcoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lechenco\dev\Alura\Excel\Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971A68B-3196-485B-ADD8-FEC188046EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D440E-04F8-4AEE-86CB-65B72DFA49DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
   <si>
     <t>Tamanho</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Tamanho:</t>
   </si>
   <si>
-    <t>Quantidade:</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
@@ -137,6 +134,15 @@
   <si>
     <t>Preço:</t>
   </si>
+  <si>
+    <t>Qtd Estoque:</t>
+  </si>
+  <si>
+    <t>Qtd Venda:</t>
+  </si>
+  <si>
+    <t>Desconto:</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +150,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -811,7 +817,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,44 +924,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,26 +942,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1014,16 +972,103 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6211,14 +6256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8904,12 +8949,12 @@
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="43">
+      <c r="C124" s="70">
         <v>0.1</v>
       </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="45"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="72"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F122">
@@ -8938,101 +8983,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="79"/>
+    </row>
+    <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="43">
+        <v>17</v>
+      </c>
+      <c r="D2" s="42">
+        <v>18</v>
+      </c>
+      <c r="E2" s="42">
+        <v>19</v>
+      </c>
+      <c r="F2" s="42">
+        <v>20</v>
+      </c>
+      <c r="G2" s="42">
+        <v>21</v>
+      </c>
+      <c r="H2" s="42">
+        <v>22</v>
+      </c>
+      <c r="I2" s="43">
+        <v>23</v>
+      </c>
+      <c r="J2" s="42">
+        <v>24</v>
+      </c>
+      <c r="K2" s="45">
+        <v>25</v>
+      </c>
+      <c r="L2" s="46">
+        <v>26</v>
+      </c>
+      <c r="M2" s="43">
+        <v>27</v>
+      </c>
+      <c r="N2" s="42">
+        <v>28</v>
+      </c>
+      <c r="O2" s="42">
+        <v>29</v>
+      </c>
+      <c r="P2" s="42">
         <v>30</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="57"/>
-    </row>
-    <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="54">
-        <v>17</v>
-      </c>
-      <c r="D2" s="53">
-        <v>18</v>
-      </c>
-      <c r="E2" s="53">
-        <v>19</v>
-      </c>
-      <c r="F2" s="53">
-        <v>20</v>
-      </c>
-      <c r="G2" s="53">
-        <v>21</v>
-      </c>
-      <c r="H2" s="53">
-        <v>22</v>
-      </c>
-      <c r="I2" s="54">
-        <v>23</v>
-      </c>
-      <c r="J2" s="53">
-        <v>24</v>
-      </c>
-      <c r="K2" s="56">
-        <v>25</v>
-      </c>
-      <c r="L2" s="58">
-        <v>26</v>
-      </c>
-      <c r="M2" s="54">
+      <c r="Q2" s="42">
+        <v>31</v>
+      </c>
+      <c r="R2" s="42">
+        <v>32</v>
+      </c>
+      <c r="S2" s="42">
+        <v>33</v>
+      </c>
+      <c r="T2" s="42">
+        <v>34</v>
+      </c>
+      <c r="U2" s="42">
+        <v>35</v>
+      </c>
+      <c r="V2" s="44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>27</v>
-      </c>
-      <c r="N2" s="53">
-        <v>28</v>
-      </c>
-      <c r="O2" s="53">
-        <v>29</v>
-      </c>
-      <c r="P2" s="53">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="53">
-        <v>31</v>
-      </c>
-      <c r="R2" s="53">
-        <v>32</v>
-      </c>
-      <c r="S2" s="53">
-        <v>33</v>
-      </c>
-      <c r="T2" s="53">
-        <v>34</v>
-      </c>
-      <c r="U2" s="53">
-        <v>35</v>
-      </c>
-      <c r="V2" s="55">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="11">
         <v>79.8</v>
@@ -9096,9 +9141,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
-        <v>29</v>
+      <c r="A4" s="74"/>
+      <c r="B4" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="10">
         <v>15</v>
@@ -9162,11 +9207,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>28</v>
+      <c r="B5" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="17">
         <v>79.8</v>
@@ -9230,9 +9275,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
-        <v>29</v>
+      <c r="A6" s="74"/>
+      <c r="B6" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="16">
         <v>17</v>
@@ -9296,11 +9341,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>28</v>
+      <c r="B7" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="23">
         <v>79.8</v>
@@ -9364,9 +9409,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
-        <v>29</v>
+      <c r="A8" s="74"/>
+      <c r="B8" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="22">
         <v>25</v>
@@ -9430,11 +9475,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>28</v>
+      <c r="B9" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="11">
         <v>85.5</v>
@@ -9498,9 +9543,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
-        <v>29</v>
+      <c r="A10" s="74"/>
+      <c r="B10" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -9564,11 +9609,11 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>28</v>
+      <c r="B11" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="17">
         <v>85.5</v>
@@ -9632,9 +9677,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
-        <v>29</v>
+      <c r="A12" s="74"/>
+      <c r="B12" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="16">
         <v>6</v>
@@ -9698,11 +9743,11 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>28</v>
+      <c r="B13" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="23">
         <v>85.5</v>
@@ -9766,9 +9811,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="51" t="s">
-        <v>29</v>
+      <c r="A14" s="74"/>
+      <c r="B14" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="22">
         <v>0</v>
@@ -9849,128 +9894,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C4FC4-DE5B-4DB6-99AD-796FEF13CBFD}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="2.28515625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="64" customWidth="1"/>
-    <col min="5" max="5" width="28" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.28515625" style="64" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="64"/>
+    <col min="1" max="3" width="2.28515625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="28" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.28515625" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
+    <row r="2" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="83" t="str">
+        <f>IF(E11 = 0, "Produto Esgotado!","")</f>
+        <v/>
+      </c>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70" t="s">
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="76">
-        <v>28</v>
-      </c>
-      <c r="F6" s="72"/>
-      <c r="I6" s="79">
-        <f>MATCH(E4,'Produtos Infantis por Coluna'!A3:A14,0)</f>
+      <c r="E9" s="60">
+        <v>18</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="I9" s="63">
+        <f>MATCH(E7,'Produtos Infantis por Coluna'!A3:A14,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="81">
-        <f>HLOOKUP(E6,'Produtos Infantis por Coluna'!C2:V14, MATCH(E4,'Produtos Infantis por Coluna'!A2:A14,0) +1,FALSE)</f>
+    <row r="10" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="65">
+        <f>IFERROR( HLOOKUP(E9,'Produtos Infantis por Coluna'!C2:V14, MATCH(E7,'Produtos Infantis por Coluna'!A2:A14,0) +1,FALSE), "Produto não encontrado")</f>
         <v>5</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="I8" s="79">
-        <f>MATCH(E6,'Produtos Infantis por Coluna'!C2:V2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="I9" s="79"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="82">
-        <f ca="1">OFFSET('Produtos Infantis por Coluna'!B2,MATCH(E4,'Produtos Infantis por Coluna'!A3:A14,0),MATCH(E6,'Produtos Infantis por Coluna'!C2:V2,0))</f>
-        <v>89.9</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="I10" s="80">
-        <f>INDEX('Produtos Infantis por Coluna'!C3:V14,'Procura em Estoque'!I6,'Procura em Estoque'!I8)</f>
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F11" s="56"/>
+      <c r="I11" s="63">
+        <f>MATCH(E9,'Produtos Infantis por Coluna'!C2:V2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="49"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="49"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="65">
+        <v>4</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="49"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="56"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="49"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="66">
+        <f ca="1">IFERROR(OFFSET('Produtos Infantis por Coluna'!B2,MATCH(E7,'Produtos Infantis por Coluna'!A3:A14,0),MATCH(E9,'Produtos Infantis por Coluna'!C2:V2,0)),"Produto não encontrado")</f>
+        <v>85.5</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="I17" s="64">
+        <f>INDEX('Produtos Infantis por Coluna'!C3:V14,'Procura em Estoque'!I9,'Procura em Estoque'!I11)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E$11=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{B5657280-29CD-444F-A964-A9B008B8B8D2}">
+      <formula1 xml:space="preserve"> E13 &lt;= E11</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{A8455636-D41F-4360-967B-EF1D54B14CF0}">
+      <formula1>E13 &lt;= E11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9990,10 +10120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="82"/>
       <c r="E1" s="34" t="s">
         <v>17</v>
       </c>
@@ -10298,21 +10428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DADAA82B37D6A34396C9A79382D322B2" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1793825d7b05ea3989becfa6f4c745dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44473e96-bad3-4ccd-b3db-2438e2abade5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="056e6b85bc79c915fb5c20b44a88eb3f" ns3:_="">
     <xsd:import namespace="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -10476,31 +10591,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B015A53-F126-4CCF-ABA9-FFC404E00010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D59180-AF5E-4D5F-B5F2-FD9983DB5A90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9078D384-9AE1-45F2-A6A0-DA4B91BF7A28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10516,4 +10622,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D59180-AF5E-4D5F-B5F2-FD9983DB5A90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B015A53-F126-4CCF-ABA9-FFC404E00010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>